--- a/Calibration data/KENAF_Camera_Angle_Calibration_wDistortion_Correction.xlsx
+++ b/Calibration data/KENAF_Camera_Angle_Calibration_wDistortion_Correction.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tecnic08\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="477" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9820" tabRatio="477" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -45,55 +49,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +68,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -113,45 +76,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -210,14 +145,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -229,7 +183,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -241,9 +195,21 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11604394246000861"/>
+          <c:y val="0.1483651994750978"/>
+          <c:w val="0.82696019631722084"/>
+          <c:h val="0.75408761451575324"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -251,41 +217,37 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="diamond"/>
             <c:size val="4"/>
           </c:marker>
           <c:trendline>
-            <c:spPr>
-              <a:ln w="19080">
-                <a:solidFill>
-                  <a:srgbClr val="5b9bd5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:intercept val="38.8"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.183974141798903E-2"/>
+                  <c:y val="-0.36430419799114533"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>238</c:v>
                 </c:pt>
@@ -312,70 +274,61 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.53199095528227</c:v>
+                  <c:v>9.5319909552822679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.4497890542131</c:v>
+                  <c:v>14.449789054213124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.6746519950194</c:v>
+                  <c:v>19.674651995019399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0691459036773</c:v>
+                  <c:v>25.06914590367732</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.2377625159748</c:v>
+                  <c:v>29.237762515974815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.0716498903793</c:v>
+                  <c:v>33.07164989037927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.0725965252189</c:v>
+                  <c:v>37.072596525218891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.1410257533075</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
+                  <c:v>39.141025753307446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67520236"/>
-        <c:axId val="77691268"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1466320496"/>
+        <c:axId val="-1466319952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67520236"/>
+        <c:axId val="-1466320496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +338,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -401,7 +354,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -413,23 +366,26 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77691268"/>
+        <c:crossAx val="-1466319952"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77691268"/>
+        <c:axId val="-1466319952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -440,7 +396,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -456,7 +412,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -468,20 +424,23 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67520236"/>
+        <c:crossAx val="-1466320496"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -491,24 +450,34 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -520,7 +489,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -531,10 +500,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30343247440889332"/>
+          <c:y val="0.92183193724020185"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11460328547350428"/>
+          <c:y val="8.0696607154150529E-2"/>
+          <c:w val="0.82587749648046971"/>
+          <c:h val="0.72934042477400829"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -542,39 +530,60 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
             <a:ln w="25560">
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="99CCFF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="diamond"/>
             <c:size val="4"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="99CCFF"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8674053522892674E-2"/>
+                  <c:y val="-0.40181496224568575"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Angle = -0.004 yPx + 0.9731</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>238</c:v>
                 </c:pt>
@@ -601,72 +610,64 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.166364626439995</c:v>
+                  <c:v>0.16636462643999517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.252196395214656</c:v>
+                  <c:v>0.25219639521465642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34338745649716</c:v>
+                  <c:v>0.34338745649715952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.437539136682019</c:v>
+                  <c:v>0.43753913668201849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.510295221819941</c:v>
+                  <c:v>0.51029522181994169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57720917965394</c:v>
+                  <c:v>0.57720917965394003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.647038871628479</c:v>
+                  <c:v>0.64703887162847873</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.683139772003109</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
+                  <c:v>0.68313977200310871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="22623534"/>
-        <c:axId val="52061381"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1466319408"/>
+        <c:axId val="-1466318320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22623534"/>
+        <c:axId val="-1466319408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -674,7 +675,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -690,7 +691,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -701,24 +702,34 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46292284283794383"/>
+              <c:y val="0.86589614382362368"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52061381"/>
+        <c:crossAx val="-1466318320"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52061381"/>
+        <c:axId val="-1466318320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -729,7 +740,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -745,7 +756,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -757,20 +768,23 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22623534"/>
+        <c:crossAx val="-1466319408"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -780,24 +794,34 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -809,7 +833,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -821,7 +845,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -831,34 +857,34 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="diamond"/>
             <c:size val="4"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19080">
                 <a:solidFill>
-                  <a:srgbClr val="5b9bd5"/>
+                  <a:srgbClr val="5B9BD5"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:intercept val="38.8"/>
+            <c:intercept val="38.799999999999997"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -866,15 +892,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>183</c:v>
                 </c:pt>
@@ -911,51 +928,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>-42.5303239350895</c:v>
+                  <c:v>-42.530323935089463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-35.9956625854216</c:v>
+                  <c:v>-35.995662585421591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-28.6023757894357</c:v>
+                  <c:v>-28.602375789435726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.3932655461634</c:v>
+                  <c:v>-21.393265546163416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-12.4292571325226</c:v>
+                  <c:v>-12.429257132522611</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.4292571325226</c:v>
+                  <c:v>12.429257132522611</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.3932655461634</c:v>
+                  <c:v>21.393265546163416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.6023757894357</c:v>
+                  <c:v>28.602375789435726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72821972"/>
-        <c:axId val="21676927"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1684231520"/>
+        <c:axId val="-1684229888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72821972"/>
+        <c:axId val="-1684231520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +982,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -981,7 +998,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -993,23 +1010,26 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="21676927"/>
+        <c:crossAx val="-1684229888"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21676927"/>
+        <c:axId val="-1684229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1020,7 +1040,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1036,7 +1056,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1048,20 +1068,23 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72821972"/>
+        <c:crossAx val="-1684231520"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1071,24 +1094,34 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1100,21 +1133,40 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
+              <a:rPr lang="en-US" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>y Pixel vs. Angle in radian</a:t>
+              <a:t>x Pixel vs. Angle in radian</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28317089916996557"/>
+          <c:y val="0.90986261453805495"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11943182410430833"/>
+          <c:y val="3.0975545146957894E-2"/>
+          <c:w val="0.82990435229896653"/>
+          <c:h val="0.81953739268642156"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1122,30 +1174,26 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
             <a:ln w="25560">
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="99CCFF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="diamond"/>
             <c:size val="4"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="99CCFF"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1153,13 +1201,11 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="99CCFF"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1167,13 +1213,11 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="99CCFF"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1181,13 +1225,11 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="99CCFF"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1195,71 +1237,85 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="99CCFF"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14132859891186861"/>
+                  <c:y val="6.4598258901157127E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Angle = 0.0052 xPx - 1.6953</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$18</c:f>
+              <c:f>Sheet3!$A$5:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>238</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>261</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>287</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>324</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>361</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>387</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>410</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>436</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>527</c:v>
                 </c:pt>
               </c:numCache>
@@ -1267,70 +1323,70 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$18</c:f>
+              <c:f>Sheet3!$C$5:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>-0.7422941846070622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>-0.62824282855254143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>-0.49920563141836571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.742294184607062</c:v>
+                  <c:v>-0.37338292153401453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.628242828552542</c:v>
+                  <c:v>-0.21693146053950874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.499205631418366</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.373382921534015</c:v>
+                  <c:v>0.21693146053950874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.216931460539509</c:v>
+                  <c:v>0.37338292153401453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.49920563141836571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.216931460539509</c:v>
+                  <c:v>0.62824282855254143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.373382921534015</c:v>
+                  <c:v>0.7422941846070622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.499205631418366</c:v>
+                  <c:v>0.8011319888037195</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.628242828552542</c:v>
+                  <c:v>0.88393235223362976</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.742294184607062</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.801131988803719</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.88393235223363</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.939342617475083</c:v>
+                  <c:v>0.93934261747508341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="86892935"/>
-        <c:axId val="4453383"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1459876704"/>
+        <c:axId val="-1459875072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86892935"/>
+        <c:axId val="-1459876704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1396,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1356,35 +1412,38 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>y Pixel [px]</a:t>
+                  <a:t>x Pixel [px]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4453383"/>
+        <c:crossAx val="-1459875072"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4453383"/>
+        <c:axId val="-1459875072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1396,7 +1455,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1412,7 +1471,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1424,20 +1483,23 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86892935"/>
+        <c:crossAx val="-1459876704"/>
         <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1447,23 +1509,30 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1477,14 +1546,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10251000" y="676800"/>
-        <a:ext cx="5032800" cy="3304800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1497,24 +1566,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:colOff>241410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>488880</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4602960" y="667080"/>
-        <a:ext cx="5166360" cy="3285360"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1528,7 +1597,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1542,14 +1611,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10251000" y="676800"/>
-        <a:ext cx="5032800" cy="3304800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1561,25 +1630,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38210</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>488880</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4602960" y="667080"/>
-        <a:ext cx="5166360" cy="3285360"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1592,498 +1661,740 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.5748987854251"/>
+    <col min="1" max="2" width="8.58203125"/>
+    <col min="3" max="3" width="19.25"/>
+    <col min="4" max="8" width="8.58203125"/>
+    <col min="9" max="9" width="16.5"/>
+    <col min="10" max="1025" width="8.58203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>238</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1.5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">ACOS($J3/B2)</f>
+      <c r="C2">
+        <f>ACOS($J3/B2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">C2*360/(2*PI())</f>
+      <c r="D2">
+        <f t="shared" ref="D2:D10" si="0">C2*360/(2*PI())</f>
         <v>0</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>200</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1.521</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">ACOS($J3/B3)</f>
-        <v>0.166364626439995</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C3*360/(2*PI())</f>
-        <v>9.53199095528227</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="B3">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="C3">
+        <f>ACOS($J3/B3)</f>
+        <v>0.16636462643999517</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>9.5319909552822679</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>180</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1.549</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">ACOS($J3/B4)</f>
-        <v>0.252196395214656</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">C4*360/(2*PI())</f>
-        <v>14.4497890542131</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="B4">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="C4">
+        <f>ACOS($J3/B4)</f>
+        <v>0.25219639521465642</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>14.449789054213124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>160</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>1.593</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">ACOS($J3/B5)</f>
-        <v>0.34338745649716</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">C5*360/(2*PI())</f>
-        <v>19.6746519950194</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="C5">
+        <f>ACOS($J3/B5)</f>
+        <v>0.34338745649715952</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>19.674651995019399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>140</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1.656</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">ACOS($J3/B6)</f>
-        <v>0.437539136682019</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">C6*360/(2*PI())</f>
-        <v>25.0691459036773</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="B6">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="C6">
+        <f>ACOS($J3/B6)</f>
+        <v>0.43753913668201849</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>25.06914590367732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>120</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">ACOS($J3/B7)</f>
-        <v>0.510295221819941</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">C7*360/(2*PI())</f>
-        <v>29.2377625159748</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="B7">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="C7">
+        <f>ACOS($J3/B7)</f>
+        <v>0.51029522181994169</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>29.237762515974815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>100</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>1.79</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">ACOS($J3/B8)</f>
-        <v>0.57720917965394</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">C8*360/(2*PI())</f>
-        <v>33.0716498903793</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="C8">
+        <f>ACOS($J3/B8)</f>
+        <v>0.57720917965394003</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>33.07164989037927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>80</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>1.88</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">ACOS($J3/B9)</f>
-        <v>0.647038871628479</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">C9*360/(2*PI())</f>
-        <v>37.0725965252189</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="C9">
+        <f>ACOS($J3/B9)</f>
+        <v>0.64703887162847873</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>37.072596525218891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>65</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>1.934</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">ACOS($J3/B10)</f>
-        <v>0.683139772003109</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">C10*360/(2*PI())</f>
-        <v>39.1410257533075</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B10">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="C10">
+        <f>ACOS($J3/B10)</f>
+        <v>0.68313977200310871</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>39.141025753307446</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.5748987854251"/>
+    <col min="1" max="2" width="8.58203125"/>
+    <col min="3" max="3" width="19.25"/>
+    <col min="4" max="8" width="8.58203125"/>
+    <col min="9" max="9" width="16.5"/>
+    <col min="10" max="1025" width="8.58203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="0" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="0" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A10-(A15-A10)</f>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>A10-(A15-A10)</f>
         <v>183</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>1.357</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">-ACOS($J3/B5)</f>
-        <v>-0.742294184607062</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">C5*360/(2*PI())</f>
-        <v>-42.5303239350895</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A10-(A14-A10)</f>
+      <c r="C5">
+        <f>-ACOS($J3/B5)</f>
+        <v>-0.7422941846070622</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D18" si="0">C5*360/(2*PI())</f>
+        <v>-42.530323935089463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>A10-(A14-A10)</f>
         <v>212</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>1.236</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">-ACOS($J3/B6)</f>
-        <v>-0.628242828552542</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">C6*360/(2*PI())</f>
-        <v>-35.9956625854216</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <f aca="false">A10-(A13-A10)</f>
+      <c r="C6">
+        <f>-ACOS($J3/B6)</f>
+        <v>-0.62824282855254143</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-35.995662585421591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>A10-(A13-A10)</f>
         <v>238</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>1.139</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">-ACOS($J3/B7)</f>
-        <v>-0.499205631418366</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">C7*360/(2*PI())</f>
-        <v>-28.6023757894357</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <f aca="false">A10-(A12-A10)</f>
+      <c r="C7">
+        <f>-ACOS($J3/B7)</f>
+        <v>-0.49920563141836571</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-28.602375789435726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>A10-(A12-A10)</f>
         <v>261</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1.074</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">-ACOS($J3/B8)</f>
-        <v>-0.373382921534015</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">C8*360/(2*PI())</f>
-        <v>-21.3932655461634</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <f aca="false">A10-(A11-A10)</f>
+      <c r="B8">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="C8">
+        <f>-ACOS($J3/B8)</f>
+        <v>-0.37338292153401453</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-21.393265546163416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>A10-(A11-A10)</f>
         <v>287</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>1.024</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">-ACOS($J3/B9)</f>
-        <v>-0.216931460539509</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">C9*360/(2*PI())</f>
-        <v>-12.4292571325226</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="C9">
+        <f>-ACOS($J3/B9)</f>
+        <v>-0.21693146053950874</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-12.429257132522611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>324</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">ACOS($J3/B10)</f>
+      <c r="C10">
+        <f>ACOS($J3/B10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">C10*360/(2*PI())</f>
+      <c r="D10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>361</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>1.024</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">ACOS($J3/B11)</f>
-        <v>0.216931460539509</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">C11*360/(2*PI())</f>
-        <v>12.4292571325226</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="C11">
+        <f>ACOS($J3/B11)</f>
+        <v>0.21693146053950874</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>12.429257132522611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>387</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1.074</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">ACOS($J3/B12)</f>
-        <v>0.373382921534015</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">C12*360/(2*PI())</f>
-        <v>21.3932655461634</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="B12">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="C12">
+        <f>ACOS($J3/B12)</f>
+        <v>0.37338292153401453</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>21.393265546163416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>410</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>1.139</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">ACOS($J3/B13)</f>
-        <v>0.499205631418366</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">C13*360/(2*PI())</f>
-        <v>28.6023757894357</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="C13">
+        <f>ACOS($J3/B13)</f>
+        <v>0.49920563141836571</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>28.602375789435726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>436</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>1.236</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">ACOS($J3/B14)</f>
-        <v>0.628242828552542</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">C14*360/(2*PI())</f>
-        <v>35.9956625854216</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="C14">
+        <f>ACOS($J3/B14)</f>
+        <v>0.62824282855254143</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>35.995662585421591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>465</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>1.357</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">ACOS($J3/B15)</f>
-        <v>0.742294184607062</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">C15*360/(2*PI())</f>
-        <v>42.5303239350895</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="C15">
+        <f>ACOS($J3/B15)</f>
+        <v>0.7422941846070622</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>42.530323935089463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>482</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>1.437</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <f aca="false">ACOS($J3/B16)</f>
-        <v>0.801131988803719</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C16*360/(2*PI())</f>
-        <v>45.9014817913751</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="B16">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="C16">
+        <f>ACOS($J3/B16)</f>
+        <v>0.8011319888037195</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>45.901481791375055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>507</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>1.577</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">ACOS($J3/B17)</f>
-        <v>0.88393235223363</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C17*360/(2*PI())</f>
-        <v>50.6455931580583</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="C17">
+        <f>ACOS($J3/B17)</f>
+        <v>0.88393235223362976</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>50.645593158058269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>527</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>1.694</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <f aca="false">ACOS($J3/B18)</f>
-        <v>0.939342617475083</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C18*360/(2*PI())</f>
-        <v>53.820367498094</v>
+      <c r="C18">
+        <f>ACOS($J3/B18)</f>
+        <v>0.93934261747508341</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>53.820367498094008</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>